--- a/SeleniumPOMFramework/TestData/freeCrmTestData.xlsx
+++ b/SeleniumPOMFramework/TestData/freeCrmTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -114,6 +114,39 @@
   </si>
   <si>
     <t>qwert</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Satilsh</t>
+  </si>
+  <si>
+    <t>Yashaswi</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>LMN</t>
   </si>
 </sst>
 </file>
@@ -648,12 +681,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -676,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
